--- a/Doc/Requiremnt/产品需求库.xlsx
+++ b/Doc/Requiremnt/产品需求库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="产品线-数据库" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,6 +172,10 @@
   </si>
   <si>
     <t>由于医学和化学学科具有大量的词根词汇，所以是否可以提供针对医学、化学学科的记忆系统</t>
+  </si>
+  <si>
+    <t>段海平：绘制产品LOGO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -571,11 +575,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -729,11 +733,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -768,7 +772,9 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3">
